--- a/General_Results_and_Plotting/Early_Modeled_Updated620.xlsx
+++ b/General_Results_and_Plotting/Early_Modeled_Updated620.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Desktop\FBA Paper Revisions\Figure Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Downloads\Maize-Rhizobia-AMF_FBA-main\General_Results_and_Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB35799-DA64-47B9-AC47-467726E7A273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72D0396-C500-4781-A1B2-EE977263577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="M1" sqref="M1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,34 +393,34 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>787.67971004142646</v>
+        <v>771</v>
       </c>
       <c r="C2">
-        <v>352.28566411159221</v>
+        <v>345</v>
       </c>
       <c r="D2">
-        <v>206.99433977576817</v>
+        <v>202</v>
       </c>
       <c r="E2">
-        <v>134.22833213570058</v>
+        <v>131</v>
       </c>
       <c r="F2">
-        <v>90.495485167946882</v>
+        <v>89</v>
       </c>
       <c r="G2">
-        <v>61.118379914105915</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>40.027016924759842</v>
+        <v>39</v>
       </c>
       <c r="I2">
-        <v>24.201263813752224</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>10.742841801429066</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>-0.183018029202763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -428,34 +428,34 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>787.67999396016671</v>
+        <v>771</v>
       </c>
       <c r="C3">
-        <v>352.28652983300657</v>
+        <v>345</v>
       </c>
       <c r="D3">
-        <v>207.009912691393</v>
+        <v>202</v>
       </c>
       <c r="E3">
-        <v>134.25141242692069</v>
+        <v>131</v>
       </c>
       <c r="F3">
-        <v>90.522694978839596</v>
+        <v>89</v>
       </c>
       <c r="G3">
-        <v>61.147618703275441</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>40.057460433478738</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>24.233067933463154</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>10.759101835735896</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>10.892415312456793</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -463,34 +463,34 @@
         <v>80</v>
       </c>
       <c r="B4">
-        <v>787.97196790982923</v>
+        <v>771</v>
       </c>
       <c r="C4">
-        <v>352.45678492023995</v>
+        <v>345</v>
       </c>
       <c r="D4">
-        <v>207.12423595664532</v>
+        <v>203</v>
       </c>
       <c r="E4">
-        <v>134.33723525677911</v>
+        <v>131</v>
       </c>
       <c r="F4">
-        <v>90.590321342546915</v>
+        <v>89</v>
       </c>
       <c r="G4">
-        <v>61.20290695827233</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>40.105191242551093</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>24.275251901283333</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>24.624858514500573</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>24.736800879946593</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -498,34 +498,34 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>788.30984212083627</v>
+        <v>772</v>
       </c>
       <c r="C5">
-        <v>352.6284681776558</v>
+        <v>345</v>
       </c>
       <c r="D5">
-        <v>207.23878393507661</v>
+        <v>203</v>
       </c>
       <c r="E5">
-        <v>134.42305809133535</v>
+        <v>132</v>
       </c>
       <c r="F5">
-        <v>90.65811899842214</v>
+        <v>89</v>
       </c>
       <c r="G5">
-        <v>61.259033866269796</v>
+        <v>60</v>
       </c>
       <c r="H5">
-        <v>40.153360152709119</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>42.076506649507941</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>42.44910118565079</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>42.534228149325301</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -533,34 +533,34 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>788.6494980743546</v>
+        <v>772</v>
       </c>
       <c r="C6">
-        <v>352.80015202759665</v>
+        <v>345</v>
       </c>
       <c r="D6">
-        <v>207.35288252048213</v>
+        <v>203</v>
       </c>
       <c r="E6">
-        <v>134.50921852077133</v>
+        <v>132</v>
       </c>
       <c r="F6">
-        <v>90.725916655323672</v>
+        <v>89</v>
       </c>
       <c r="G6">
-        <v>61.314358582133423</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>63.567428379397754</v>
+        <v>63</v>
       </c>
       <c r="I6">
-        <v>65.811293916888843</v>
+        <v>65</v>
       </c>
       <c r="J6">
-        <v>66.214944379102249</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>66.265884853356297</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -568,34 +568,34 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>788.99026744535524</v>
+        <v>772</v>
       </c>
       <c r="C7">
-        <v>352.9708245752276</v>
+        <v>345</v>
       </c>
       <c r="D7">
-        <v>207.46758054768546</v>
+        <v>203</v>
       </c>
       <c r="E7">
-        <v>134.59498508048864</v>
+        <v>132</v>
       </c>
       <c r="F7">
-        <v>90.793936562168966</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>93.643707522116287</v>
+        <v>92</v>
       </c>
       <c r="H7">
-        <v>96.347737196598544</v>
+        <v>96</v>
       </c>
       <c r="I7">
-        <v>99.040271047895175</v>
+        <v>99</v>
       </c>
       <c r="J7">
-        <v>99.486937466887881</v>
+        <v>99</v>
       </c>
       <c r="K7">
-        <v>99.490091251121697</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -603,34 +603,34 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>789.32880998198448</v>
+        <v>773</v>
       </c>
       <c r="C8">
-        <v>353.14217114606453</v>
+        <v>345</v>
       </c>
       <c r="D8">
-        <v>207.58152904474773</v>
+        <v>203</v>
       </c>
       <c r="E8">
-        <v>134.68097671599867</v>
+        <v>132</v>
       </c>
       <c r="F8">
-        <v>138.57689001568409</v>
+        <v>136</v>
       </c>
       <c r="G8">
-        <v>142.13879445209813</v>
+        <v>140</v>
       </c>
       <c r="H8">
-        <v>145.51820041253677</v>
+        <v>145</v>
       </c>
       <c r="I8">
-        <v>148.88385731811405</v>
+        <v>148</v>
       </c>
       <c r="J8">
-        <v>149.32651373609559</v>
+        <v>149</v>
       </c>
       <c r="K8">
-        <v>149.32651373267078</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -638,34 +638,34 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>789.64064406507157</v>
+        <v>773</v>
       </c>
       <c r="C9">
-        <v>353.29635351741587</v>
+        <v>346</v>
       </c>
       <c r="D9">
-        <v>207.68457608163749</v>
+        <v>203</v>
       </c>
       <c r="E9">
-        <v>213.01022143071441</v>
+        <v>209</v>
       </c>
       <c r="F9">
-        <v>216.00000014221678</v>
+        <v>215</v>
       </c>
       <c r="G9">
-        <v>216.00000053103949</v>
+        <v>216</v>
       </c>
       <c r="H9">
-        <v>216.00000259495226</v>
+        <v>216</v>
       </c>
       <c r="I9">
-        <v>216.00000264478268</v>
+        <v>216</v>
       </c>
       <c r="J9">
-        <v>216.00000261800912</v>
+        <v>216</v>
       </c>
       <c r="K9">
-        <v>216.00000261800912</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -673,34 +673,34 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>532.00000059107526</v>
+        <v>532</v>
       </c>
       <c r="C10">
-        <v>215.99999993977912</v>
+        <v>216</v>
       </c>
       <c r="D10">
-        <v>215.9999996937446</v>
+        <v>216</v>
       </c>
       <c r="E10">
-        <v>215.99999897219746</v>
+        <v>216</v>
       </c>
       <c r="F10">
-        <v>216.00000024055177</v>
+        <v>216</v>
       </c>
       <c r="G10">
-        <v>216.00000107524795</v>
+        <v>216</v>
       </c>
       <c r="H10">
-        <v>216.00000015197963</v>
+        <v>216</v>
       </c>
       <c r="I10">
-        <v>215.99999910901255</v>
+        <v>216</v>
       </c>
       <c r="J10">
-        <v>215.99999981036837</v>
+        <v>216</v>
       </c>
       <c r="K10">
-        <v>215.9999995524482</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -708,34 +708,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>216.00000082916128</v>
+        <v>216</v>
       </c>
       <c r="C11">
-        <v>215.99999485943579</v>
+        <v>216</v>
       </c>
       <c r="D11">
-        <v>216.00000285903542</v>
+        <v>216</v>
       </c>
       <c r="E11">
-        <v>215.99999791946595</v>
+        <v>216</v>
       </c>
       <c r="F11">
-        <v>215.99999867418526</v>
+        <v>216</v>
       </c>
       <c r="G11">
-        <v>216.00000331716421</v>
+        <v>216</v>
       </c>
       <c r="H11">
-        <v>216.00000198181166</v>
+        <v>216</v>
       </c>
       <c r="I11">
-        <v>215.99999718418653</v>
+        <v>216</v>
       </c>
       <c r="J11">
-        <v>215.9999955292661</v>
+        <v>216</v>
       </c>
       <c r="K11">
-        <v>215.9999955292661</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
